--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -1,17 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasia\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC52F03E-40A8-455C-B258-88893AFB8AD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="213">
   <si>
     <t>ID</t>
   </si>
@@ -292,27 +313,446 @@
   </si>
   <si>
     <t xml:space="preserve">4. Осуществился переход на главную страницу приложения </t>
+  </si>
+  <si>
+    <t>Высокий</t>
+  </si>
+  <si>
+    <t>1. Отобразились кнопки: "Главная", "Новости", "О приложении"</t>
+  </si>
+  <si>
+    <t>3. Отобразились кнопки: "Главная", "Новости", "О приложении"</t>
+  </si>
+  <si>
+    <t>5. Потворно нажать на значок "три черты" на главном экране (в левом верхнем углу)</t>
+  </si>
+  <si>
+    <t>5. Отобразились кнопки: "Главная", "Новости", "О приложении"</t>
+  </si>
+  <si>
+    <t>Навигация по меню - переход в раздел "Новости"</t>
+  </si>
+  <si>
+    <t>1. Нажать на значок "три черты" на главном экране (в левом верхнем углу)</t>
+  </si>
+  <si>
+    <t>2. Выбрать "Новости" в появившемся списке разделов</t>
+  </si>
+  <si>
+    <t>2. Отобразился раздел "Новости", появится полный список новостей</t>
+  </si>
+  <si>
+    <t>3. Потворно нажать на значок "три черты" на главном экране (в левом верхнем углу)</t>
+  </si>
+  <si>
+    <t>4. Выбрать "О приложении" в появившемся списке разделов</t>
+  </si>
+  <si>
+    <t>4. Отобразится информация о приложении (версия), ссылки на документы "Политика конфиденциальности" и "Пользовательское соглашение"</t>
+  </si>
+  <si>
+    <t>6. Выбрать "Новости" в появившемся списке разделов</t>
+  </si>
+  <si>
+    <t>6. Отобразился раздел "Новости", появится полный список новостей</t>
+  </si>
+  <si>
+    <t>Навигация меджу разделами приложения</t>
+  </si>
+  <si>
+    <t>Функциональность главной страницы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка наличия элементов на главной страницы
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Присутствуют элементы: на верхней панели кнопка меню "три черты", кнопка в виде бабочки, кнопка выхода - пользователь, блок "Новости", ссылка на "Все новости" с возможжностью сворачивание/разворачивания </t>
+  </si>
+  <si>
+    <t>Фильтрация в разеле новости негативная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фильтрация новостей по несуществующей дате 
+</t>
+  </si>
+  <si>
+    <t>1. На главной странице открыть фильтр с разделами новостей</t>
+  </si>
+  <si>
+    <t>4. Во втором поле DD.MM.YYYY  выбрать текущую дату</t>
+  </si>
+  <si>
+    <t>5. Нажать кнопку Фильтровать</t>
+  </si>
+  <si>
+    <t>3. В первом поле DD.MM.YYYY выбрать текущую дату</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сортировка новостей во вкладке "Панель управления" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сортировка новостей позитивная 
+</t>
+  </si>
+  <si>
+    <t>1. Открывается экран Фильтровать новости с полями Категория, DD.MM.YYYY и кнопками Фильтровать и Отмена</t>
+  </si>
+  <si>
+    <t>2. Дата введена в первое (левое) поле</t>
+  </si>
+  <si>
+    <t>3. Дата введена во второе (правое) поле</t>
+  </si>
+  <si>
+    <t>4. Возврат на вкладку Новости, появлется картинка бабочки с кнопкой "Обновить" и текстом "Здесь пока ничего нет..." Нажатие кнопки Обновить возвращает к общему списку Новостей.</t>
+  </si>
+  <si>
+    <t>2. Нажать кнопку Редактирование (карандаш)</t>
+  </si>
+  <si>
+    <t>1. Нажать - Все новости</t>
+  </si>
+  <si>
+    <t>3. Нажать кнопку смены порядка отображения новостей (стрелочки)</t>
+  </si>
+  <si>
+    <t>4. Нажать кнопку смены порядка отображения новостей (стрелочки)</t>
+  </si>
+  <si>
+    <t>1. Переход на вкладку Новости. Отображается заголовок новости, доступны блоки новостей, кнопки порядка отображения, фильтра, панели управления</t>
+  </si>
+  <si>
+    <t>2. Переход на экран Панель управления, название экрана, блоки новостей, кнопка изменения порядка отображения в виде стрелочек, кнопка фильтра, кнопка создания новостей (+)</t>
+  </si>
+  <si>
+    <t>3. Порядок отображения изменяется от самой ранней к самой поздней</t>
+  </si>
+  <si>
+    <t>4. Порядок отображения изменяется от самой поздней к самой ранней</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фильтрация новостей без указания категории, в определенный период времени
+</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Новости" на главной странице мобильного приложения.</t>
+  </si>
+  <si>
+    <t>2. Нажать на кнопку "Фильтровать Новости".</t>
+  </si>
+  <si>
+    <t>3. Поле "Категория" оставить пустым.</t>
+  </si>
+  <si>
+    <t>5. Нажать на кнопку "Фильтровать".</t>
+  </si>
+  <si>
+    <t>6. Нажать на кнопку "ОК".</t>
+  </si>
+  <si>
+    <t>7. Указать корректный диапазон дат (начальная - конечная дата).</t>
+  </si>
+  <si>
+    <t>1. Отобразился список новостей.</t>
+  </si>
+  <si>
+    <t>2. Отобразилась вкладка для фильтрации новостей.</t>
+  </si>
+  <si>
+    <t>3. Поле "Категория" пустое.</t>
+  </si>
+  <si>
+    <t>4. Отобразилась начальная дата.</t>
+  </si>
+  <si>
+    <t>5. Отобразилось уведомление "Неверно указан период".</t>
+  </si>
+  <si>
+    <t>6. Отобразилась вкладка для фильтрации новостей,даты в указанном диапазоне,список новостей, входящий в указанный диапазон дат.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Фильтрация новостей, во вкладке "Новости" мобильного приложения "Мобильный хоспис" </t>
+  </si>
+  <si>
+    <t>Фильтрация новостей во вкладке "Панель управления" новостей (позитивный)</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей по критерию "Активна"</t>
+  </si>
+  <si>
+    <t>3. Открыть Фильтр новостей</t>
+  </si>
+  <si>
+    <t>4. Нажать чекбокс Не активна</t>
+  </si>
+  <si>
+    <t>6. Открыть Фильтр новостей</t>
+  </si>
+  <si>
+    <t>7. Повторно нажать чекбокс - Не активна</t>
+  </si>
+  <si>
+    <t>9. Нажать чекбокс - Активна</t>
+  </si>
+  <si>
+    <t>10. Нажать кнопку Фильтровать</t>
+  </si>
+  <si>
+    <t>3. Открывается экран Фильтровать новости с полями Категория, DD.MM.YYYY и кнопками Фильтровать и Отмена</t>
+  </si>
+  <si>
+    <t>4. Галочка снята</t>
+  </si>
+  <si>
+    <t>5. Возврат на экран Панель управления. Отображены только новости со статусом Активна</t>
+  </si>
+  <si>
+    <t>7. Галочка поставлена</t>
+  </si>
+  <si>
+    <t>10. Возврат на экран Панель управления. Отображены только новости со статусом Не активна</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей по категории "День рождения", во вкладке "Новости" мобильного приложения "Мобильный хоспис"</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей по определенной категории</t>
+  </si>
+  <si>
+    <t>3. Выбрать категорию для фильтрации новостей "День рождения".</t>
+  </si>
+  <si>
+    <t>4. Нажать на кнопку "Фильтровать".</t>
+  </si>
+  <si>
+    <t>3. В поле "Категория" отобразился фильтр новостей "День рождения".</t>
+  </si>
+  <si>
+    <t>4. Отобразился список новостей отфильтрованный по категории "День рождения".</t>
+  </si>
+  <si>
+    <t>Смена статуса новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Смена статуса новости находящаяся в статусе "Активна" на статус "Не активна", </t>
+  </si>
+  <si>
+    <t>2. Нажать на кнопку "Панель управления".</t>
+  </si>
+  <si>
+    <t>3. Нажать на кнопку "Редактировать" новость.</t>
+  </si>
+  <si>
+    <t>4. Сменить статус "Активная" на статус "Не активная".</t>
+  </si>
+  <si>
+    <t>5. Нажать на кнопку "Сохранить".</t>
+  </si>
+  <si>
+    <t>2. Отобразилась вкладка "Панель управления" новостей.</t>
+  </si>
+  <si>
+    <t>3. Отобразилась вкладка "Редактирование Новости".</t>
+  </si>
+  <si>
+    <t>4. Отобразился новый статус новости "Не активна".</t>
+  </si>
+  <si>
+    <t>5. Отредактированная новость отобразилась в списке новостей.</t>
+  </si>
+  <si>
+    <t>3. Нажать на кнопку "+" (Создание Новости).</t>
+  </si>
+  <si>
+    <t>4. Поле "Категория" оставить пустым.</t>
+  </si>
+  <si>
+    <t>5. Ввести в поле "Заголовок" заголовок новости.</t>
+  </si>
+  <si>
+    <t>6. В поле "Дата публикации" выбрать дату по календарю. Нажать кнопку "ОК".</t>
+  </si>
+  <si>
+    <t>7. В поле "Время" выбрать время. Нажать кнопку "ОК".</t>
+  </si>
+  <si>
+    <t>8. Ввести в поле "Описание" описание новости.</t>
+  </si>
+  <si>
+    <t>9. Нажать на кнопку "Сохранить".</t>
+  </si>
+  <si>
+    <t>3. Отобразилась вкладка для создания новости.</t>
+  </si>
+  <si>
+    <t>4. Поле "Категория" пустое.</t>
+  </si>
+  <si>
+    <t>5. В поле "Заголовок" отобразился заголовок новости.</t>
+  </si>
+  <si>
+    <t>6. В поле "Дата публикации" отобразилась указанная дата.</t>
+  </si>
+  <si>
+    <t>7. В поле "Время" отобразилось указанное время.</t>
+  </si>
+  <si>
+    <t>8. В поле "Описание" отобразилось описание новости.</t>
+  </si>
+  <si>
+    <t>9. Отобразилось уведомление "Заполните пустые поля".</t>
+  </si>
+  <si>
+    <t>Поле "Категория" пустое, при создании новости</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поле "Категория" пустое, при создании новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Поле "Категория"  при создании новости состоит из спецсимволов</t>
+  </si>
+  <si>
+    <t>Поле категория при создании новости,состоит из спецсимволов, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>Ручной ввод времени в поле "Время"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ручной ввод времени в поле "Время", при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"</t>
+  </si>
+  <si>
+    <t>4. Выбрать категорию для создания новости.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Нажать на поле "Время". </t>
+  </si>
+  <si>
+    <t>8. В модальном окне для ввода времени нажать на иконку "Клавиатура".</t>
+  </si>
+  <si>
+    <t>9. В поля ввода часы и минуты ввести корректное время. Нажать кнопку "ОК".</t>
+  </si>
+  <si>
+    <t>10. Ввести в поле "Описание" описание новости.</t>
+  </si>
+  <si>
+    <t>11. Нажать на кнопку "Сохранить".</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ручной ввод времени в поле "Время", </t>
+  </si>
+  <si>
+    <t>Ручной ввод времени в поле время при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис" негативный</t>
+  </si>
+  <si>
+    <t>Отмена редактирование новости</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Отмена редактирование новости в поле во вкладке "Панель управления" мобильного приложения "Мобильный хоспис</t>
+  </si>
+  <si>
+    <t>Отмена редактирование новости и возврат к редактированию</t>
+  </si>
+  <si>
+    <t>Отмена редактирование новости и возврат к редактированию во вкладке "Панель управления" мобильного приложения "Мобильный хоспис</t>
+  </si>
+  <si>
+    <t>Развернуть/свернуть тематическую цитату</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Развернуть/свернуть тематическую цитату во вкладке "Главное - жить любя", мобильного приложения "Мобильный хоспис</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Навигация по меню - переход в раздел "О приложении"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Проверка наличия всех элементов  страницы в разделе  "О приложении" </t>
+  </si>
+  <si>
+    <t>Проверка наличия  отображения всех элементов страницы в разделе  "О приложении"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Просмотр ссылки "Политика конфиденциальности" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Просмотр ссылки "Политика конфиденциальности"  во вкладке "О приложении" мобильного приложения "Мобильный хоспис"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Просмотр ссылки "Пользовательское соглашение" </t>
+  </si>
+  <si>
+    <t>Просмотр ссылки "Пользовательское соглашение"  во вкладке "О приложении" мобильного приложения "Мобильный хоспис"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="9">
@@ -320,7 +760,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -360,22 +800,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
-    <border/>
+  <borders count="13">
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -385,6 +835,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -393,11 +844,18 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -406,9 +864,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -420,14 +880,19 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -442,104 +907,733 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="58">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{27B6AA34-377B-44A7-A520-7A5FFF3B878F}"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="499">
+          <cell r="F499" t="str">
+            <v>1. Нажать на кнопку "Новости" на главной странице мобильного приложения.</v>
+          </cell>
+          <cell r="G499" t="str">
+            <v>1. Отобразился список новостей.</v>
+          </cell>
+        </row>
+        <row r="500">
+          <cell r="F500" t="str">
+            <v>2. Нажать на кнопку "Панель управления".</v>
+          </cell>
+          <cell r="G500" t="str">
+            <v>2. Отобразилась вкладка "Панель управления" новостей.</v>
+          </cell>
+        </row>
+        <row r="501">
+          <cell r="F501" t="str">
+            <v>3. Нажать на кнопку "+" (Создание Новости).</v>
+          </cell>
+          <cell r="G501" t="str">
+            <v>3. Отобразилась вкладка для создания новости.</v>
+          </cell>
+        </row>
+        <row r="502">
+          <cell r="F502" t="str">
+            <v>4. Ввести в поле "Категория" спецсимволы.</v>
+          </cell>
+          <cell r="G502" t="str">
+            <v>4. В поле "Категория" отобразились спецсимволы.</v>
+          </cell>
+        </row>
+        <row r="503">
+          <cell r="F503" t="str">
+            <v>5. Ввести в поле "Заголовок" заголовок новости.</v>
+          </cell>
+          <cell r="G503" t="str">
+            <v>5. В поле "Заголовок" отобразился заголовок новости.</v>
+          </cell>
+        </row>
+        <row r="504">
+          <cell r="F504" t="str">
+            <v>6. В поле "Дата публикации" выбрать дату по календарю. Нажать кнопку "ОК".</v>
+          </cell>
+          <cell r="G504" t="str">
+            <v>6. В поле "Дата публикации" отобразилась указанная дата.</v>
+          </cell>
+        </row>
+        <row r="505">
+          <cell r="F505" t="str">
+            <v>7. В поле "Время" выбрать время. Нажать кнопку "ОК".</v>
+          </cell>
+          <cell r="G505" t="str">
+            <v>7. В поле "Время" отобразилось указанное время.</v>
+          </cell>
+        </row>
+        <row r="506">
+          <cell r="F506" t="str">
+            <v>8. Ввести в поле "Описание" описание новости.</v>
+          </cell>
+          <cell r="G506" t="str">
+            <v>8. В поле "Описание" отобразилось описание новости.</v>
+          </cell>
+        </row>
+        <row r="507">
+          <cell r="F507" t="str">
+            <v>9. Нажать на кнопку "Сохранить".</v>
+          </cell>
+          <cell r="G507" t="str">
+            <v>9. Отобразилось уведомление "Сохранение не удалось. Попробуйте позднее".</v>
+          </cell>
+        </row>
+        <row r="519">
+          <cell r="G519" t="str">
+            <v>1. Отобразился список новостей.</v>
+          </cell>
+        </row>
+        <row r="520">
+          <cell r="G520" t="str">
+            <v>2. Отобразилась вкладка "Панель управления" новостей.</v>
+          </cell>
+        </row>
+        <row r="521">
+          <cell r="G521" t="str">
+            <v>3. Отобразилась вкладка для создания новости.</v>
+          </cell>
+        </row>
+        <row r="522">
+          <cell r="G522" t="str">
+            <v>4. В поле "Категория" отобразилась категория новости.</v>
+          </cell>
+        </row>
+        <row r="523">
+          <cell r="G523" t="str">
+            <v>5. В поле "Заголовок" отобразился заголовок новости.</v>
+          </cell>
+        </row>
+        <row r="524">
+          <cell r="G524" t="str">
+            <v>6. В поле "Дата публикации" отобразилась указанная дата.</v>
+          </cell>
+        </row>
+        <row r="525">
+          <cell r="G525" t="str">
+            <v>7. Отобразилось модальное окно для ввода времени.</v>
+          </cell>
+        </row>
+        <row r="526">
+          <cell r="G526" t="str">
+            <v>8. Отобразились два поля (часы и минуты) для ввода времени.</v>
+          </cell>
+        </row>
+        <row r="527">
+          <cell r="G527" t="str">
+            <v>9. В поле "Время" отобразилось указанное время.</v>
+          </cell>
+        </row>
+        <row r="528">
+          <cell r="G528" t="str">
+            <v>10. В поле "Описание" отобразилось описание новости.</v>
+          </cell>
+        </row>
+        <row r="529">
+          <cell r="G529" t="str">
+            <v>11. Новость отобразилась в списке новостей.</v>
+          </cell>
+        </row>
+        <row r="531">
+          <cell r="F531" t="str">
+            <v>1. Нажать на кнопку "Новости" на главной странице мобильного приложения.</v>
+          </cell>
+          <cell r="G531" t="str">
+            <v>1. Отобразился список новостей.</v>
+          </cell>
+        </row>
+        <row r="532">
+          <cell r="F532" t="str">
+            <v>2. Нажать на кнопку "Панель управления".</v>
+          </cell>
+          <cell r="G532" t="str">
+            <v>2. Отобразилась вкладка "Панель управления" новостей.</v>
+          </cell>
+        </row>
+        <row r="533">
+          <cell r="F533" t="str">
+            <v>3. Нажать на кнопку "+" (Создание Новости).</v>
+          </cell>
+          <cell r="G533" t="str">
+            <v>3. Отобразилась вкладка для создания новости.</v>
+          </cell>
+        </row>
+        <row r="534">
+          <cell r="F534" t="str">
+            <v>4. Выбрать категорию для создания новости.</v>
+          </cell>
+          <cell r="G534" t="str">
+            <v>4. В поле "Категория" отобразилась категория новости.</v>
+          </cell>
+        </row>
+        <row r="535">
+          <cell r="F535" t="str">
+            <v>5. Ввести в поле "Заголовок" заголовок новости.</v>
+          </cell>
+          <cell r="G535" t="str">
+            <v>5. В поле "Заголовок" отобразился заголовок новости.</v>
+          </cell>
+        </row>
+        <row r="536">
+          <cell r="F536" t="str">
+            <v>6. В поле "Дата публикации" выбрать дату по календарю. Нажать кнопку "ОК".</v>
+          </cell>
+          <cell r="G536" t="str">
+            <v>6. В поле "Дата публикации" отобразилась указанная дата.</v>
+          </cell>
+        </row>
+        <row r="537">
+          <cell r="F537" t="str">
+            <v xml:space="preserve">7. Нажать на поле "Время". </v>
+          </cell>
+          <cell r="G537" t="str">
+            <v>7. Отобразилось модальное окно для ввода времени.</v>
+          </cell>
+        </row>
+        <row r="538">
+          <cell r="F538" t="str">
+            <v>8. В модальном окне для ввода времени нажать на иконку "Клавиатура".</v>
+          </cell>
+          <cell r="G538" t="str">
+            <v>8. Отобразились два поля (часы и минуты) для ввода времени.</v>
+          </cell>
+        </row>
+        <row r="539">
+          <cell r="F539" t="str">
+            <v>9. В поля ввода часы и минуты ввести некорректное время. Нажать кнопку "ОК".</v>
+          </cell>
+          <cell r="G539" t="str">
+            <v>9. Отобразилось уведомление "Указано недопустимое время".</v>
+          </cell>
+        </row>
+        <row r="540">
+          <cell r="F540" t="str">
+            <v>10. Нажать кнопку "Отмена"</v>
+          </cell>
+          <cell r="G540" t="str">
+            <v>10. Отобразилась вкладка для создания новости.</v>
+          </cell>
+        </row>
+        <row r="545">
+          <cell r="F545" t="str">
+            <v>1. На главной странице экрана приложения нажать на кнопку "Бабочка" (Тематические цитаты).</v>
+          </cell>
+          <cell r="G545" t="str">
+            <v>1. Отобразился список тематических цитат.</v>
+          </cell>
+        </row>
+        <row r="546">
+          <cell r="F546" t="str">
+            <v>2. Нажать на кнопку развернуть тематическую цитату.</v>
+          </cell>
+          <cell r="G546" t="str">
+            <v>2. Отобразилось содержимое тематической цитаты.</v>
+          </cell>
+        </row>
+        <row r="547">
+          <cell r="F547" t="str">
+            <v>3. Нажать на кнопку свернуть тематическую цитату.</v>
+          </cell>
+          <cell r="G547" t="str">
+            <v>3. Содержимое тематической цитаты свернулось.</v>
+          </cell>
+        </row>
+        <row r="553">
+          <cell r="F553" t="str">
+            <v>1. Нажать на кнопку главного меню (в левом верхнем углу).</v>
+          </cell>
+          <cell r="G553" t="str">
+            <v>1. Отобразились кнопки: "Заявки", "Новости", "О приложении".</v>
+          </cell>
+        </row>
+        <row r="554">
+          <cell r="F554" t="str">
+            <v>2. Нажать на кнопку "О приложении".</v>
+          </cell>
+          <cell r="G554" t="str">
+            <v>2. Отобразились две ссылки: "Политика конфиденциальности", "Пользовательское соглашение".</v>
+          </cell>
+        </row>
+        <row r="555">
+          <cell r="F555" t="str">
+            <v>3. Нажать на ссылку "Политика конфиденциальности".</v>
+          </cell>
+          <cell r="G555" t="str">
+            <v>3. Отобразились основные цели и условия обработки персональных данных пользователей и сведения о реализуемых требованиях к защите персональных данных.</v>
+          </cell>
+        </row>
+        <row r="557">
+          <cell r="F557" t="str">
+            <v>1. Нажать на кнопку главного меню (в левом верхнем углу).</v>
+          </cell>
+          <cell r="G557" t="str">
+            <v>1. Отобразились кнопки: "Заявки", "Новости", "О приложении".</v>
+          </cell>
+        </row>
+        <row r="558">
+          <cell r="F558" t="str">
+            <v>2. Нажать на кнопку "О приложении".</v>
+          </cell>
+          <cell r="G558" t="str">
+            <v>2. Отобразились две ссылки: "Политика конфиденциальности", "Пользовательское соглашение".</v>
+          </cell>
+        </row>
+        <row r="559">
+          <cell r="F559" t="str">
+            <v>3. Нажать на ссылку "Пользовательское соглашение".</v>
+          </cell>
+          <cell r="G559" t="str">
+            <v>3. Отобразилось пользовательское соглашение.</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cases"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="75">
+          <cell r="F75" t="str">
+            <v>1. Нажать на значок "три черты" на главном экране (в левом верхнем углу)</v>
+          </cell>
+          <cell r="G75" t="str">
+            <v>1. Отобразились кнопки: "Главная", "Новости", "О приложении"</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="F76" t="str">
+            <v>2. Выбрать "О приложении" в появившемся списке разделов</v>
+          </cell>
+          <cell r="G76" t="str">
+            <v>2. Отобразится информация о приложении (версия), ссылки на документы "Политика конфиденциальности" и "Пользовательское соглашение"</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="F77" t="str">
+            <v>3. Потворно нажать на значок "три черты" на главном экране (в левом верхнем углу)</v>
+          </cell>
+          <cell r="G77" t="str">
+            <v>3. Отобразились кнопки: "Главная", "Новости", "О приложении"</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="F78" t="str">
+            <v>4. Выбрать "Новости" в появившемся списке разделов</v>
+          </cell>
+          <cell r="G78" t="str">
+            <v>4. Отобразился раздел "Новости", появится полный список новостей</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="F79" t="str">
+            <v>5. Потворно нажать на значок "три черты" на главном экране (в левом верхнем углу)</v>
+          </cell>
+          <cell r="G79" t="str">
+            <v>5. Отобразились кнопки: "Главная", "Новости", "О приложении"</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="F80" t="str">
+            <v>6. Выбрать "О приложении" в появившемся списке разделов</v>
+          </cell>
+          <cell r="G80" t="str">
+            <v>6. Отобразится информация о приложении (версия), ссылки на документы "Политика конфиденциальности" и "Пользовательское соглашение"</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="F273" t="str">
+            <v>1. Нажать кнопку Все новости</v>
+          </cell>
+          <cell r="G273" t="str">
+            <v>1. Переход на вкладку Новости. Отображается заголовок новости, доступны блоки новостей, кнопки порядка отображения, фильтра, панели управления</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="F274" t="str">
+            <v>2. Нажать кнопку Редактирование (карандаш)</v>
+          </cell>
+          <cell r="G274" t="str">
+            <v>2. Переход на экран Панель управления, название экрана, блоки новостей, кнопка изменения порядка отображения в виде стрелочек, кнопка фильтра, кнопка создания новостей (+)</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="F275" t="str">
+            <v>3. Нажать кнопку Создание новости (плюс)</v>
+          </cell>
+          <cell r="G275" t="str">
+            <v>3. Переход на экран с названием Создание новости</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="F276" t="str">
+            <v>4. Нажать кнопку Отмена</v>
+          </cell>
+          <cell r="G276" t="str">
+            <v>4. Открыто окно Предупреждение: Изменения не будут сохранены. Вы действительно хотите выйти? 
+С двумя кнопками  Отмена и ОК</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="F277" t="str">
+            <v>5. Нажать кнопку ОК</v>
+          </cell>
+          <cell r="G277" t="str">
+            <v>5. Новость не создается. Возврат на экран Панель управления</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="F279" t="str">
+            <v>1. Нажать кнопку Все новости</v>
+          </cell>
+          <cell r="G279" t="str">
+            <v>1. Переход на вкладку Новости. Отображается заголовок новости, доступны блоки новостей, кнопки порядка отображения, фильтра, панели управления</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="F280" t="str">
+            <v>2. Нажать кнопку Редактирование (карандаш)</v>
+          </cell>
+          <cell r="G280" t="str">
+            <v>2. Переход на экран Панель управления, название экрана, блоки новостей, кнопка изменения порядка отображения в виде стрелочек, кнопка фильтра, кнопка создания новостей (+)</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="F281" t="str">
+            <v>3. Нажать кнопку Создание новости (плюс)</v>
+          </cell>
+          <cell r="G281" t="str">
+            <v>3. Переход на экран с названием Создание новости</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="F282" t="str">
+            <v>4. Нажать кнопку Отмена</v>
+          </cell>
+          <cell r="G282" t="str">
+            <v>4. Открыто окно Предупреждение: Изменения не будут сохранены. Вы действительно хотите выйти? 
+С двумя кнопками  Отмена и ОК</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="F283" t="str">
+            <v>5. В окне предупреждения нажать Отмена</v>
+          </cell>
+          <cell r="G283" t="str">
+            <v>5. Закрытие редактирования новости не происходит. Переход на экран Редактирование Новости с полями Категория, Заголовок, Дата публикации, Время, Описание, с активным статусом Активна и кнопками Сохранить, Отмена</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="F291" t="str">
+            <v>1. Нажать на значок "три черты" главного меню (в левом верхнем углу)</v>
+          </cell>
+          <cell r="G291" t="str">
+            <v>1. Отобразились кнопки: "Главная", "Новости", "О приложении"</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="F292" t="str">
+            <v>2. Нажать на кнопку "О приложении"</v>
+          </cell>
+          <cell r="G292" t="str">
+            <v>2. Открылось окно "О приложении"</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="F293" t="str">
+            <v>3. Проверить, что блок "О приложении" содержит информацию о версии</v>
+          </cell>
+          <cell r="G293" t="str">
+            <v>3. Версия - 1.0.0 в верхней части экрана</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="F294" t="str">
+            <v>4. Проверить, что блок "О приложении" содержит ссылку на политику конфиденциальности</v>
+          </cell>
+          <cell r="G294" t="str">
+            <v>4. Ссылка на политику конфиденциальности в наличии</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="F295" t="str">
+            <v>5. Проверить, что блок "О приложении" содержит ссылку на пользовательское соглашение</v>
+          </cell>
+          <cell r="G295" t="str">
+            <v>5. Ссылка на пользовательское соглашение в наличии</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="F296" t="str">
+            <v>6. Проверить, что блок "О приложении" содержит информацию о разработчике и год</v>
+          </cell>
+          <cell r="G296" t="str">
+            <v>6. Информация о разработчике и год в нижней части экрана</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -729,734 +1823,2948 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I231"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C192" sqref="C192:C201"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="35.63"/>
-    <col customWidth="1" min="3" max="3" width="26.13"/>
-    <col customWidth="1" min="4" max="4" width="15.38"/>
-    <col customWidth="1" min="5" max="5" width="43.38"/>
-    <col customWidth="1" min="6" max="6" width="72.0"/>
-    <col customWidth="1" min="9" max="9" width="31.25"/>
-    <col customWidth="1" min="10" max="10" width="34.88"/>
+    <col min="2" max="2" width="35.6328125" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" customWidth="1"/>
+    <col min="5" max="5" width="43.36328125" customWidth="1"/>
+    <col min="6" max="6" width="72" customWidth="1"/>
+    <col min="8" max="8" width="31.26953125" customWidth="1"/>
+    <col min="9" max="9" width="34.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="12" t="s">
+    <row r="3" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="12" t="s">
+    <row r="4" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="12" t="s">
+    <row r="5" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="B8" s="20" t="s">
+    <row r="6" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="12" t="s">
+    <row r="9" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="12" t="s">
+    <row r="10" spans="1:6" ht="20.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="12" t="s">
+    <row r="11" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" ht="33.0" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="12" t="s">
+    <row r="12" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="12" t="s">
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" ht="30.75" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="12" t="s">
+    <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" ht="30.75" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="B16" s="20" t="s">
+    <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>3</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15" t="s">
+    <row r="17" spans="1:6" ht="20.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="12" t="s">
+    <row r="18" spans="1:6" ht="20.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="12" t="s">
+    <row r="19" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="12" t="s">
+    <row r="20" spans="1:6" ht="20.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="12" t="s">
+    <row r="21" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="12" t="s">
+    <row r="22" spans="1:6" ht="20.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="23"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="B25" s="24" t="s">
+    <row r="23" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6" ht="20.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>4</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="12" t="s">
+    <row r="26" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="12" t="s">
+    <row r="27" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="12" t="s">
+    <row r="28" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="B31" s="24" t="s">
+    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" ht="20.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>5</v>
+      </c>
+      <c r="B31" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15" t="s">
+    <row r="32" spans="1:6" ht="20.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" ht="28.5" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15" t="s">
+    <row r="33" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-    </row>
-    <row r="34" ht="21.0" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15" t="s">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15" t="s">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" ht="20.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-    </row>
-    <row r="36" ht="27.75" customHeight="1">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15" t="s">
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-    </row>
-    <row r="37" ht="27.75" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15" t="s">
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-    </row>
-    <row r="38" ht="19.5" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="15" t="s">
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-    </row>
-    <row r="39" ht="40.5" customHeight="1">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15" t="s">
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15" t="s">
+    <row r="40" spans="1:9" ht="30.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15" t="s">
+    <row r="41" spans="1:9" ht="20.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F41" s="27" t="s">
+      <c r="F41" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="15" t="s">
+    <row r="42" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="15" t="s">
+    <row r="43" spans="1:9" ht="20.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="15" t="s">
+    <row r="44" spans="1:9" ht="20.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="19">
-        <v>6.0</v>
-      </c>
-      <c r="B46" s="24" t="s">
+    <row r="45" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="1:9" ht="20.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>6</v>
+      </c>
+      <c r="B46" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="12" t="s">
+    <row r="47" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="15"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="19">
-        <v>7.0</v>
-      </c>
-      <c r="B52" s="24" t="s">
+    <row r="48" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>7</v>
+      </c>
+      <c r="B49" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C49" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E49" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F49" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="12" t="s">
+    <row r="50" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F50" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="29" t="s">
+    <row r="51" spans="1:6" ht="20.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="F54" s="27" t="s">
+      <c r="F51" s="21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="15" t="s">
+    <row r="52" spans="1:6" ht="20.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="F52" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="13"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="17"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
+    <row r="53" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23">
+        <v>8</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23">
+        <v>9</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="23"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="39.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="23"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="23"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="28"/>
+    </row>
+    <row r="67" spans="1:6" ht="39.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="23">
+        <v>10</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F67" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="23"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F68" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="23"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F69" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="23"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F70" s="39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="23"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="26"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="23"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="28"/>
+    </row>
+    <row r="73" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="23">
+        <v>11</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F73" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="23"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F74" s="35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F75" s="37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="23"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F76" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="23"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="26"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="23"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="28"/>
+    </row>
+    <row r="79" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="23">
+        <v>12</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F79" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="23"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F80" s="35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="23"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="F81" s="37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="23"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" s="39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="23"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="26"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="23"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="28"/>
+    </row>
+    <row r="85" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="23">
+        <v>13</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F85" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="23"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F86" s="35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="23"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F87" s="37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="23"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="F88" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="23"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="F89" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="23"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="F90" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="23">
+        <v>14</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F91" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="23"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F92" s="35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="23"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="F93" s="37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="23"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="F94" s="39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="23"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F95" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="23"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="F96" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="23"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="F97" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="23"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="F98" s="42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="48"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="49"/>
+      <c r="E99" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F99" s="44"/>
+    </row>
+    <row r="100" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="23">
+        <v>15</v>
+      </c>
+      <c r="B100" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="C100" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F100" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="23"/>
+      <c r="B101" s="52"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="F101" s="35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="23"/>
+      <c r="B102" s="52"/>
+      <c r="C102" s="52"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="F102" s="37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="23"/>
+      <c r="B103" s="52"/>
+      <c r="C103" s="52"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="F103" s="39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="23"/>
+      <c r="B104" s="52"/>
+      <c r="C104" s="52"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="F104" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="23"/>
+      <c r="B105" s="52"/>
+      <c r="C105" s="52"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="47"/>
+      <c r="F105" s="26"/>
+    </row>
+    <row r="106" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="23">
+        <v>16</v>
+      </c>
+      <c r="B106" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="C106" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F106" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="23"/>
+      <c r="B107" s="52"/>
+      <c r="C107" s="52"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="F107" s="35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="23"/>
+      <c r="B108" s="52"/>
+      <c r="C108" s="52"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="F108" s="37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="23"/>
+      <c r="B109" s="52"/>
+      <c r="C109" s="52"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="F109" s="39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="23"/>
+      <c r="B110" s="52"/>
+      <c r="C110" s="52"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="F110" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="23"/>
+      <c r="B111" s="52"/>
+      <c r="C111" s="52"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="F111" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="23"/>
+      <c r="B112" s="52"/>
+      <c r="C112" s="52"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="F112" s="42" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="23"/>
+      <c r="B113" s="52"/>
+      <c r="C113" s="52"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="F113" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="23"/>
+      <c r="B114" s="52"/>
+      <c r="C114" s="52"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="F114" s="42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="23"/>
+      <c r="B115" s="52"/>
+      <c r="C115" s="52"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="54"/>
+      <c r="F115" s="42"/>
+    </row>
+    <row r="116" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="23">
+        <v>17</v>
+      </c>
+      <c r="B116" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="C116" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E116" s="11" t="str">
+        <f>[1]Лист1!F499</f>
+        <v>1. Нажать на кнопку "Новости" на главной странице мобильного приложения.</v>
+      </c>
+      <c r="F116" s="33" t="str">
+        <f>[1]Лист1!G499</f>
+        <v>1. Отобразился список новостей.</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="23"/>
+      <c r="B117" s="52"/>
+      <c r="C117" s="52"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="35" t="str">
+        <f>[1]Лист1!F500</f>
+        <v>2. Нажать на кнопку "Панель управления".</v>
+      </c>
+      <c r="F117" s="35" t="str">
+        <f>[1]Лист1!G500</f>
+        <v>2. Отобразилась вкладка "Панель управления" новостей.</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="23"/>
+      <c r="B118" s="52"/>
+      <c r="C118" s="52"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="45" t="str">
+        <f>[1]Лист1!F501</f>
+        <v>3. Нажать на кнопку "+" (Создание Новости).</v>
+      </c>
+      <c r="F118" s="37" t="str">
+        <f>[1]Лист1!G501</f>
+        <v>3. Отобразилась вкладка для создания новости.</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="23"/>
+      <c r="B119" s="52"/>
+      <c r="C119" s="52"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="46" t="str">
+        <f>[1]Лист1!F502</f>
+        <v>4. Ввести в поле "Категория" спецсимволы.</v>
+      </c>
+      <c r="F119" s="39" t="str">
+        <f>[1]Лист1!G502</f>
+        <v>4. В поле "Категория" отобразились спецсимволы.</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="23"/>
+      <c r="B120" s="52"/>
+      <c r="C120" s="52"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="47" t="str">
+        <f>[1]Лист1!F503</f>
+        <v>5. Ввести в поле "Заголовок" заголовок новости.</v>
+      </c>
+      <c r="F120" s="26" t="str">
+        <f>[1]Лист1!G503</f>
+        <v>5. В поле "Заголовок" отобразился заголовок новости.</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="23"/>
+      <c r="B121" s="52"/>
+      <c r="C121" s="52"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="55" t="str">
+        <f>[1]Лист1!F504</f>
+        <v>6. В поле "Дата публикации" выбрать дату по календарю. Нажать кнопку "ОК".</v>
+      </c>
+      <c r="F121" s="26" t="str">
+        <f>[1]Лист1!G504</f>
+        <v>6. В поле "Дата публикации" отобразилась указанная дата.</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="23"/>
+      <c r="B122" s="52"/>
+      <c r="C122" s="52"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="41" t="str">
+        <f>[1]Лист1!F505</f>
+        <v>7. В поле "Время" выбрать время. Нажать кнопку "ОК".</v>
+      </c>
+      <c r="F122" s="42" t="str">
+        <f>[1]Лист1!G505</f>
+        <v>7. В поле "Время" отобразилось указанное время.</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="23"/>
+      <c r="B123" s="52"/>
+      <c r="C123" s="52"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="53" t="str">
+        <f>[1]Лист1!F506</f>
+        <v>8. Ввести в поле "Описание" описание новости.</v>
+      </c>
+      <c r="F123" s="26" t="str">
+        <f>[1]Лист1!G506</f>
+        <v>8. В поле "Описание" отобразилось описание новости.</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="23"/>
+      <c r="B124" s="52"/>
+      <c r="C124" s="52"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="41" t="str">
+        <f>[1]Лист1!F507</f>
+        <v>9. Нажать на кнопку "Сохранить".</v>
+      </c>
+      <c r="F124" s="42" t="str">
+        <f>[1]Лист1!G507</f>
+        <v>9. Отобразилось уведомление "Сохранение не удалось. Попробуйте позднее".</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="23"/>
+      <c r="B125" s="52"/>
+      <c r="C125" s="52"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="54"/>
+      <c r="F125" s="42"/>
+    </row>
+    <row r="126" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="23">
+        <v>18</v>
+      </c>
+      <c r="B126" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C126" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="D126" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F126" s="33" t="str">
+        <f>[1]Лист1!G519</f>
+        <v>1. Отобразился список новостей.</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="23"/>
+      <c r="B127" s="52"/>
+      <c r="C127" s="52"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="F127" s="35" t="str">
+        <f>[1]Лист1!G520</f>
+        <v>2. Отобразилась вкладка "Панель управления" новостей.</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="23"/>
+      <c r="B128" s="52"/>
+      <c r="C128" s="52"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="F128" s="37" t="str">
+        <f>[1]Лист1!G521</f>
+        <v>3. Отобразилась вкладка для создания новости.</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="23"/>
+      <c r="B129" s="52"/>
+      <c r="C129" s="52"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="F129" s="39" t="str">
+        <f>[1]Лист1!G522</f>
+        <v>4. В поле "Категория" отобразилась категория новости.</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="23"/>
+      <c r="B130" s="52"/>
+      <c r="C130" s="52"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="F130" s="26" t="str">
+        <f>[1]Лист1!G523</f>
+        <v>5. В поле "Заголовок" отобразился заголовок новости.</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="23"/>
+      <c r="B131" s="52"/>
+      <c r="C131" s="52"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="F131" s="26" t="str">
+        <f>[1]Лист1!G524</f>
+        <v>6. В поле "Дата публикации" отобразилась указанная дата.</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="23"/>
+      <c r="B132" s="52"/>
+      <c r="C132" s="52"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="F132" s="42" t="str">
+        <f>[1]Лист1!G525</f>
+        <v>7. Отобразилось модальное окно для ввода времени.</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="23"/>
+      <c r="B133" s="52"/>
+      <c r="C133" s="52"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="F133" s="42" t="str">
+        <f>[1]Лист1!G526</f>
+        <v>8. Отобразились два поля (часы и минуты) для ввода времени.</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="23"/>
+      <c r="B134" s="52"/>
+      <c r="C134" s="52"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="F134" s="26" t="str">
+        <f>[1]Лист1!G527</f>
+        <v>9. В поле "Время" отобразилось указанное время.</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="23"/>
+      <c r="B135" s="52"/>
+      <c r="C135" s="52"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="F135" s="42" t="str">
+        <f>[1]Лист1!G528</f>
+        <v>10. В поле "Описание" отобразилось описание новости.</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="23"/>
+      <c r="B136" s="52"/>
+      <c r="C136" s="52"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="F136" s="42" t="str">
+        <f>[1]Лист1!G529</f>
+        <v>11. Новость отобразилась в списке новостей.</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="23">
+        <v>19</v>
+      </c>
+      <c r="B137" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C137" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D137" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E137" s="11" t="str">
+        <f>[1]Лист1!F531</f>
+        <v>1. Нажать на кнопку "Новости" на главной странице мобильного приложения.</v>
+      </c>
+      <c r="F137" s="33" t="str">
+        <f>[1]Лист1!G531</f>
+        <v>1. Отобразился список новостей.</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="23"/>
+      <c r="B138" s="52"/>
+      <c r="C138" s="52"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="35" t="str">
+        <f>[1]Лист1!F532</f>
+        <v>2. Нажать на кнопку "Панель управления".</v>
+      </c>
+      <c r="F138" s="35" t="str">
+        <f>[1]Лист1!G532</f>
+        <v>2. Отобразилась вкладка "Панель управления" новостей.</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="23"/>
+      <c r="B139" s="52"/>
+      <c r="C139" s="52"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="45" t="str">
+        <f>[1]Лист1!F533</f>
+        <v>3. Нажать на кнопку "+" (Создание Новости).</v>
+      </c>
+      <c r="F139" s="37" t="str">
+        <f>[1]Лист1!G533</f>
+        <v>3. Отобразилась вкладка для создания новости.</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="23"/>
+      <c r="B140" s="52"/>
+      <c r="C140" s="52"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="46" t="str">
+        <f>[1]Лист1!F534</f>
+        <v>4. Выбрать категорию для создания новости.</v>
+      </c>
+      <c r="F140" s="39" t="str">
+        <f>[1]Лист1!G534</f>
+        <v>4. В поле "Категория" отобразилась категория новости.</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="23"/>
+      <c r="B141" s="52"/>
+      <c r="C141" s="52"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="47" t="str">
+        <f>[1]Лист1!F535</f>
+        <v>5. Ввести в поле "Заголовок" заголовок новости.</v>
+      </c>
+      <c r="F141" s="26" t="str">
+        <f>[1]Лист1!G535</f>
+        <v>5. В поле "Заголовок" отобразился заголовок новости.</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="23"/>
+      <c r="B142" s="52"/>
+      <c r="C142" s="52"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="55" t="str">
+        <f>[1]Лист1!F536</f>
+        <v>6. В поле "Дата публикации" выбрать дату по календарю. Нажать кнопку "ОК".</v>
+      </c>
+      <c r="F142" s="26" t="str">
+        <f>[1]Лист1!G536</f>
+        <v>6. В поле "Дата публикации" отобразилась указанная дата.</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="23"/>
+      <c r="B143" s="52"/>
+      <c r="C143" s="52"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="53" t="str">
+        <f>[1]Лист1!F537</f>
+        <v xml:space="preserve">7. Нажать на поле "Время". </v>
+      </c>
+      <c r="F143" s="42" t="str">
+        <f>[1]Лист1!G537</f>
+        <v>7. Отобразилось модальное окно для ввода времени.</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="23"/>
+      <c r="B144" s="52"/>
+      <c r="C144" s="52"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="41" t="str">
+        <f>[1]Лист1!F538</f>
+        <v>8. В модальном окне для ввода времени нажать на иконку "Клавиатура".</v>
+      </c>
+      <c r="F144" s="42" t="str">
+        <f>[1]Лист1!G538</f>
+        <v>8. Отобразились два поля (часы и минуты) для ввода времени.</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A145" s="23"/>
+      <c r="B145" s="52"/>
+      <c r="C145" s="52"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="53" t="str">
+        <f>[1]Лист1!F539</f>
+        <v>9. В поля ввода часы и минуты ввести некорректное время. Нажать кнопку "ОК".</v>
+      </c>
+      <c r="F145" s="26" t="str">
+        <f>[1]Лист1!G539</f>
+        <v>9. Отобразилось уведомление "Указано недопустимое время".</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="23"/>
+      <c r="B146" s="52"/>
+      <c r="C146" s="52"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="41" t="str">
+        <f>[1]Лист1!F540</f>
+        <v>10. Нажать кнопку "Отмена"</v>
+      </c>
+      <c r="F146" s="42" t="str">
+        <f>[1]Лист1!G540</f>
+        <v>10. Отобразилась вкладка для создания новости.</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="23"/>
+      <c r="B147" s="52"/>
+      <c r="C147" s="52"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="54"/>
+      <c r="F147" s="42"/>
+    </row>
+    <row r="148" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="23">
+        <v>20</v>
+      </c>
+      <c r="B148" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="C148" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="D148" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E148" s="11" t="str">
+        <f>[2]Cases!F273</f>
+        <v>1. Нажать кнопку Все новости</v>
+      </c>
+      <c r="F148" s="33" t="str">
+        <f>[2]Cases!G273</f>
+        <v>1. Переход на вкладку Новости. Отображается заголовок новости, доступны блоки новостей, кнопки порядка отображения, фильтра, панели управления</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="23"/>
+      <c r="B149" s="52"/>
+      <c r="C149" s="52"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="35" t="str">
+        <f>[2]Cases!F274</f>
+        <v>2. Нажать кнопку Редактирование (карандаш)</v>
+      </c>
+      <c r="F149" s="35" t="str">
+        <f>[2]Cases!G274</f>
+        <v>2. Переход на экран Панель управления, название экрана, блоки новостей, кнопка изменения порядка отображения в виде стрелочек, кнопка фильтра, кнопка создания новостей (+)</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="23"/>
+      <c r="B150" s="52"/>
+      <c r="C150" s="52"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="45" t="str">
+        <f>[2]Cases!F275</f>
+        <v>3. Нажать кнопку Создание новости (плюс)</v>
+      </c>
+      <c r="F150" s="37" t="str">
+        <f>[2]Cases!G275</f>
+        <v>3. Переход на экран с названием Создание новости</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="23"/>
+      <c r="B151" s="52"/>
+      <c r="C151" s="52"/>
+      <c r="D151" s="24"/>
+      <c r="E151" s="46" t="str">
+        <f>[2]Cases!F276</f>
+        <v>4. Нажать кнопку Отмена</v>
+      </c>
+      <c r="F151" s="39" t="str">
+        <f>[2]Cases!G276</f>
+        <v>4. Открыто окно Предупреждение: Изменения не будут сохранены. Вы действительно хотите выйти? 
+С двумя кнопками  Отмена и ОК</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="23"/>
+      <c r="B152" s="52"/>
+      <c r="C152" s="52"/>
+      <c r="D152" s="24"/>
+      <c r="E152" s="47" t="str">
+        <f>[2]Cases!F277</f>
+        <v>5. Нажать кнопку ОК</v>
+      </c>
+      <c r="F152" s="26" t="str">
+        <f>[2]Cases!G277</f>
+        <v>5. Новость не создается. Возврат на экран Панель управления</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="23"/>
+      <c r="B153" s="52"/>
+      <c r="C153" s="52"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="55"/>
+      <c r="F153" s="26"/>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="23"/>
+      <c r="B154" s="52"/>
+      <c r="C154" s="52"/>
+      <c r="D154" s="24"/>
+      <c r="E154" s="41"/>
+      <c r="F154" s="42"/>
+    </row>
+    <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="23"/>
+      <c r="B155" s="52"/>
+      <c r="C155" s="52"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="53"/>
+      <c r="F155" s="26"/>
+    </row>
+    <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="23"/>
+      <c r="B156" s="52"/>
+      <c r="C156" s="52"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="41"/>
+      <c r="F156" s="42"/>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="23"/>
+      <c r="B157" s="52"/>
+      <c r="C157" s="52"/>
+      <c r="D157" s="24"/>
+      <c r="E157" s="54"/>
+      <c r="F157" s="42"/>
+    </row>
+    <row r="158" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="23">
+        <v>21</v>
+      </c>
+      <c r="B158" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="C158" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D158" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E158" s="11" t="str">
+        <f>[2]Cases!F279</f>
+        <v>1. Нажать кнопку Все новости</v>
+      </c>
+      <c r="F158" s="33" t="str">
+        <f>[2]Cases!G279</f>
+        <v>1. Переход на вкладку Новости. Отображается заголовок новости, доступны блоки новостей, кнопки порядка отображения, фильтра, панели управления</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="23"/>
+      <c r="B159" s="52"/>
+      <c r="C159" s="52"/>
+      <c r="D159" s="24"/>
+      <c r="E159" s="35" t="str">
+        <f>[2]Cases!F280</f>
+        <v>2. Нажать кнопку Редактирование (карандаш)</v>
+      </c>
+      <c r="F159" s="35" t="str">
+        <f>[2]Cases!G280</f>
+        <v>2. Переход на экран Панель управления, название экрана, блоки новостей, кнопка изменения порядка отображения в виде стрелочек, кнопка фильтра, кнопка создания новостей (+)</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="23"/>
+      <c r="B160" s="52"/>
+      <c r="C160" s="52"/>
+      <c r="D160" s="24"/>
+      <c r="E160" s="45" t="str">
+        <f>[2]Cases!F281</f>
+        <v>3. Нажать кнопку Создание новости (плюс)</v>
+      </c>
+      <c r="F160" s="37" t="str">
+        <f>[2]Cases!G281</f>
+        <v>3. Переход на экран с названием Создание новости</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="23"/>
+      <c r="B161" s="52"/>
+      <c r="C161" s="52"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="46" t="str">
+        <f>[2]Cases!F282</f>
+        <v>4. Нажать кнопку Отмена</v>
+      </c>
+      <c r="F161" s="39" t="str">
+        <f>[2]Cases!G282</f>
+        <v>4. Открыто окно Предупреждение: Изменения не будут сохранены. Вы действительно хотите выйти? 
+С двумя кнопками  Отмена и ОК</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="23"/>
+      <c r="B162" s="52"/>
+      <c r="C162" s="52"/>
+      <c r="D162" s="24"/>
+      <c r="E162" s="55" t="str">
+        <f>[2]Cases!F283</f>
+        <v>5. В окне предупреждения нажать Отмена</v>
+      </c>
+      <c r="F162" s="26" t="str">
+        <f>[2]Cases!G283</f>
+        <v>5. Закрытие редактирования новости не происходит. Переход на экран Редактирование Новости с полями Категория, Заголовок, Дата публикации, Время, Описание, с активным статусом Активна и кнопками Сохранить, Отмена</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="23"/>
+      <c r="B163" s="52"/>
+      <c r="C163" s="52"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="41"/>
+      <c r="F163" s="42"/>
+    </row>
+    <row r="164" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="23">
+        <v>22</v>
+      </c>
+      <c r="B164" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="C164" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="D164" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E164" s="57" t="str">
+        <f>[1]Лист1!F545</f>
+        <v>1. На главной странице экрана приложения нажать на кнопку "Бабочка" (Тематические цитаты).</v>
+      </c>
+      <c r="F164" s="33" t="str">
+        <f>[1]Лист1!G545</f>
+        <v>1. Отобразился список тематических цитат.</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="23"/>
+      <c r="B165" s="52"/>
+      <c r="C165" s="52"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="56" t="str">
+        <f>[1]Лист1!F546</f>
+        <v>2. Нажать на кнопку развернуть тематическую цитату.</v>
+      </c>
+      <c r="F165" s="35" t="str">
+        <f>[1]Лист1!G546</f>
+        <v>2. Отобразилось содержимое тематической цитаты.</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="23"/>
+      <c r="B166" s="52"/>
+      <c r="C166" s="52"/>
+      <c r="D166" s="24"/>
+      <c r="E166" s="45" t="str">
+        <f>[1]Лист1!F547</f>
+        <v>3. Нажать на кнопку свернуть тематическую цитату.</v>
+      </c>
+      <c r="F166" s="37" t="str">
+        <f>[1]Лист1!G547</f>
+        <v>3. Содержимое тематической цитаты свернулось.</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="23"/>
+      <c r="B167" s="52"/>
+      <c r="C167" s="52"/>
+      <c r="D167" s="24"/>
+      <c r="E167" s="46"/>
+      <c r="F167" s="39"/>
+    </row>
+    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="23"/>
+      <c r="B168" s="52"/>
+      <c r="C168" s="52"/>
+      <c r="D168" s="24"/>
+      <c r="E168" s="47"/>
+      <c r="F168" s="26"/>
+    </row>
+    <row r="169" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="23">
+        <v>23</v>
+      </c>
+      <c r="B169" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C169" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D169" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E169" s="11" t="str">
+        <f>[2]Cases!F75</f>
+        <v>1. Нажать на значок "три черты" на главном экране (в левом верхнем углу)</v>
+      </c>
+      <c r="F169" s="33" t="str">
+        <f>[2]Cases!G75</f>
+        <v>1. Отобразились кнопки: "Главная", "Новости", "О приложении"</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="23"/>
+      <c r="B170" s="52"/>
+      <c r="C170" s="52"/>
+      <c r="D170" s="24"/>
+      <c r="E170" s="35" t="str">
+        <f>[2]Cases!F76</f>
+        <v>2. Выбрать "О приложении" в появившемся списке разделов</v>
+      </c>
+      <c r="F170" s="35" t="str">
+        <f>[2]Cases!G76</f>
+        <v>2. Отобразится информация о приложении (версия), ссылки на документы "Политика конфиденциальности" и "Пользовательское соглашение"</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="23"/>
+      <c r="B171" s="52"/>
+      <c r="C171" s="52"/>
+      <c r="D171" s="24"/>
+      <c r="E171" s="45" t="str">
+        <f>[2]Cases!F77</f>
+        <v>3. Потворно нажать на значок "три черты" на главном экране (в левом верхнем углу)</v>
+      </c>
+      <c r="F171" s="37" t="str">
+        <f>[2]Cases!G77</f>
+        <v>3. Отобразились кнопки: "Главная", "Новости", "О приложении"</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="23"/>
+      <c r="B172" s="52"/>
+      <c r="C172" s="52"/>
+      <c r="D172" s="24"/>
+      <c r="E172" s="46" t="str">
+        <f>[2]Cases!F78</f>
+        <v>4. Выбрать "Новости" в появившемся списке разделов</v>
+      </c>
+      <c r="F172" s="39" t="str">
+        <f>[2]Cases!G78</f>
+        <v>4. Отобразился раздел "Новости", появится полный список новостей</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="23"/>
+      <c r="B173" s="52"/>
+      <c r="C173" s="52"/>
+      <c r="D173" s="24"/>
+      <c r="E173" s="47" t="str">
+        <f>[2]Cases!F79</f>
+        <v>5. Потворно нажать на значок "три черты" на главном экране (в левом верхнем углу)</v>
+      </c>
+      <c r="F173" s="26" t="str">
+        <f>[2]Cases!G79</f>
+        <v>5. Отобразились кнопки: "Главная", "Новости", "О приложении"</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="23"/>
+      <c r="B174" s="52"/>
+      <c r="C174" s="52"/>
+      <c r="D174" s="24"/>
+      <c r="E174" s="55" t="str">
+        <f>[2]Cases!F80</f>
+        <v>6. Выбрать "О приложении" в появившемся списке разделов</v>
+      </c>
+      <c r="F174" s="26" t="str">
+        <f>[2]Cases!G80</f>
+        <v>6. Отобразится информация о приложении (версия), ссылки на документы "Политика конфиденциальности" и "Пользовательское соглашение"</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="23"/>
+      <c r="B175" s="52"/>
+      <c r="C175" s="52"/>
+      <c r="D175" s="24"/>
+      <c r="E175" s="41"/>
+      <c r="F175" s="42"/>
+    </row>
+    <row r="176" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="23">
+        <v>24</v>
+      </c>
+      <c r="B176" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="C176" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="D176" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E176" s="11" t="str">
+        <f>[2]Cases!F291</f>
+        <v>1. Нажать на значок "три черты" главного меню (в левом верхнем углу)</v>
+      </c>
+      <c r="F176" s="33" t="str">
+        <f>[2]Cases!G291</f>
+        <v>1. Отобразились кнопки: "Главная", "Новости", "О приложении"</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="23"/>
+      <c r="B177" s="52"/>
+      <c r="C177" s="52"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="35" t="str">
+        <f>[2]Cases!F292</f>
+        <v>2. Нажать на кнопку "О приложении"</v>
+      </c>
+      <c r="F177" s="35" t="str">
+        <f>[2]Cases!G292</f>
+        <v>2. Открылось окно "О приложении"</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="23"/>
+      <c r="B178" s="52"/>
+      <c r="C178" s="52"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="45" t="str">
+        <f>[2]Cases!F293</f>
+        <v>3. Проверить, что блок "О приложении" содержит информацию о версии</v>
+      </c>
+      <c r="F178" s="37" t="str">
+        <f>[2]Cases!G293</f>
+        <v>3. Версия - 1.0.0 в верхней части экрана</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="23"/>
+      <c r="B179" s="52"/>
+      <c r="C179" s="52"/>
+      <c r="D179" s="24"/>
+      <c r="E179" s="46" t="str">
+        <f>[2]Cases!F294</f>
+        <v>4. Проверить, что блок "О приложении" содержит ссылку на политику конфиденциальности</v>
+      </c>
+      <c r="F179" s="39" t="str">
+        <f>[2]Cases!G294</f>
+        <v>4. Ссылка на политику конфиденциальности в наличии</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="23"/>
+      <c r="B180" s="52"/>
+      <c r="C180" s="52"/>
+      <c r="D180" s="24"/>
+      <c r="E180" s="47" t="str">
+        <f>[2]Cases!F295</f>
+        <v>5. Проверить, что блок "О приложении" содержит ссылку на пользовательское соглашение</v>
+      </c>
+      <c r="F180" s="26" t="str">
+        <f>[2]Cases!G295</f>
+        <v>5. Ссылка на пользовательское соглашение в наличии</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="23"/>
+      <c r="B181" s="52"/>
+      <c r="C181" s="52"/>
+      <c r="D181" s="24"/>
+      <c r="E181" s="55" t="str">
+        <f>[2]Cases!F296</f>
+        <v>6. Проверить, что блок "О приложении" содержит информацию о разработчике и год</v>
+      </c>
+      <c r="F181" s="26" t="str">
+        <f>[2]Cases!G296</f>
+        <v>6. Информация о разработчике и год в нижней части экрана</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="23"/>
+      <c r="B182" s="52"/>
+      <c r="C182" s="52"/>
+      <c r="D182" s="24"/>
+      <c r="E182" s="41"/>
+      <c r="F182" s="42"/>
+    </row>
+    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="23"/>
+      <c r="B183" s="52"/>
+      <c r="C183" s="52"/>
+      <c r="D183" s="24"/>
+      <c r="E183" s="54"/>
+      <c r="F183" s="42"/>
+    </row>
+    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="23">
+        <v>25</v>
+      </c>
+      <c r="B184" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="C184" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="D184" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E184" s="11" t="str">
+        <f>[1]Лист1!F553</f>
+        <v>1. Нажать на кнопку главного меню (в левом верхнем углу).</v>
+      </c>
+      <c r="F184" s="33" t="str">
+        <f>[1]Лист1!G553</f>
+        <v>1. Отобразились кнопки: "Заявки", "Новости", "О приложении".</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="23"/>
+      <c r="B185" s="52"/>
+      <c r="C185" s="52"/>
+      <c r="D185" s="24"/>
+      <c r="E185" s="35" t="str">
+        <f>[1]Лист1!F554</f>
+        <v>2. Нажать на кнопку "О приложении".</v>
+      </c>
+      <c r="F185" s="35" t="str">
+        <f>[1]Лист1!G554</f>
+        <v>2. Отобразились две ссылки: "Политика конфиденциальности", "Пользовательское соглашение".</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="23"/>
+      <c r="B186" s="52"/>
+      <c r="C186" s="52"/>
+      <c r="D186" s="24"/>
+      <c r="E186" s="45" t="str">
+        <f>[1]Лист1!F555</f>
+        <v>3. Нажать на ссылку "Политика конфиденциальности".</v>
+      </c>
+      <c r="F186" s="37" t="str">
+        <f>[1]Лист1!G555</f>
+        <v>3. Отобразились основные цели и условия обработки персональных данных пользователей и сведения о реализуемых требованиях к защите персональных данных.</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="23"/>
+      <c r="B187" s="52"/>
+      <c r="C187" s="52"/>
+      <c r="D187" s="24"/>
+      <c r="E187" s="46"/>
+      <c r="F187" s="39"/>
+    </row>
+    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="23">
+        <v>26</v>
+      </c>
+      <c r="B188" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C188" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="D188" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E188" s="11" t="str">
+        <f>[1]Лист1!F557</f>
+        <v>1. Нажать на кнопку главного меню (в левом верхнем углу).</v>
+      </c>
+      <c r="F188" s="33" t="str">
+        <f>[1]Лист1!G557</f>
+        <v>1. Отобразились кнопки: "Заявки", "Новости", "О приложении".</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="23"/>
+      <c r="B189" s="52"/>
+      <c r="C189" s="52"/>
+      <c r="D189" s="24"/>
+      <c r="E189" s="35" t="str">
+        <f>[1]Лист1!F558</f>
+        <v>2. Нажать на кнопку "О приложении".</v>
+      </c>
+      <c r="F189" s="35" t="str">
+        <f>[1]Лист1!G558</f>
+        <v>2. Отобразились две ссылки: "Политика конфиденциальности", "Пользовательское соглашение".</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="23"/>
+      <c r="B190" s="52"/>
+      <c r="C190" s="52"/>
+      <c r="D190" s="24"/>
+      <c r="E190" s="45" t="str">
+        <f>[1]Лист1!F559</f>
+        <v>3. Нажать на ссылку "Пользовательское соглашение".</v>
+      </c>
+      <c r="F190" s="37" t="str">
+        <f>[1]Лист1!G559</f>
+        <v>3. Отобразилось пользовательское соглашение.</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="23"/>
+      <c r="B191" s="52"/>
+      <c r="C191" s="52"/>
+      <c r="D191" s="24"/>
+      <c r="E191" s="46"/>
+      <c r="F191" s="39"/>
+    </row>
+    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="23">
+        <v>27</v>
+      </c>
+      <c r="B192" s="50"/>
+      <c r="C192" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D192" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E192" s="11"/>
+      <c r="F192" s="33"/>
+    </row>
+    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="23"/>
+      <c r="B193" s="52"/>
+      <c r="C193" s="52"/>
+      <c r="D193" s="24"/>
+      <c r="E193" s="35"/>
+      <c r="F193" s="35"/>
+    </row>
+    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="23"/>
+      <c r="B194" s="52"/>
+      <c r="C194" s="52"/>
+      <c r="D194" s="24"/>
+      <c r="E194" s="45"/>
+      <c r="F194" s="37"/>
+    </row>
+    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="23"/>
+      <c r="B195" s="52"/>
+      <c r="C195" s="52"/>
+      <c r="D195" s="24"/>
+      <c r="E195" s="46"/>
+      <c r="F195" s="39"/>
+    </row>
+    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="23"/>
+      <c r="B196" s="52"/>
+      <c r="C196" s="52"/>
+      <c r="D196" s="24"/>
+      <c r="E196" s="47"/>
+      <c r="F196" s="26"/>
+    </row>
+    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="23"/>
+      <c r="B197" s="52"/>
+      <c r="C197" s="52"/>
+      <c r="D197" s="24"/>
+      <c r="E197" s="55"/>
+      <c r="F197" s="26"/>
+    </row>
+    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="23"/>
+      <c r="B198" s="52"/>
+      <c r="C198" s="52"/>
+      <c r="D198" s="24"/>
+      <c r="E198" s="41"/>
+      <c r="F198" s="42"/>
+    </row>
+    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="23"/>
+      <c r="B199" s="52"/>
+      <c r="C199" s="52"/>
+      <c r="D199" s="24"/>
+      <c r="E199" s="53"/>
+      <c r="F199" s="26"/>
+    </row>
+    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="23"/>
+      <c r="B200" s="52"/>
+      <c r="C200" s="52"/>
+      <c r="D200" s="24"/>
+      <c r="E200" s="41"/>
+      <c r="F200" s="42"/>
+    </row>
+    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="23"/>
+      <c r="B201" s="52"/>
+      <c r="C201" s="52"/>
+      <c r="D201" s="24"/>
+      <c r="E201" s="54"/>
+      <c r="F201" s="42"/>
+    </row>
+    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="23">
+        <v>28</v>
+      </c>
+      <c r="B202" s="50"/>
+      <c r="C202" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D202" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E202" s="11"/>
+      <c r="F202" s="33"/>
+    </row>
+    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="23"/>
+      <c r="B203" s="52"/>
+      <c r="C203" s="52"/>
+      <c r="D203" s="24"/>
+      <c r="E203" s="35"/>
+      <c r="F203" s="35"/>
+    </row>
+    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="23"/>
+      <c r="B204" s="52"/>
+      <c r="C204" s="52"/>
+      <c r="D204" s="24"/>
+      <c r="E204" s="45"/>
+      <c r="F204" s="37"/>
+    </row>
+    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="23"/>
+      <c r="B205" s="52"/>
+      <c r="C205" s="52"/>
+      <c r="D205" s="24"/>
+      <c r="E205" s="46"/>
+      <c r="F205" s="39"/>
+    </row>
+    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="23"/>
+      <c r="B206" s="52"/>
+      <c r="C206" s="52"/>
+      <c r="D206" s="24"/>
+      <c r="E206" s="47"/>
+      <c r="F206" s="26"/>
+    </row>
+    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="23"/>
+      <c r="B207" s="52"/>
+      <c r="C207" s="52"/>
+      <c r="D207" s="24"/>
+      <c r="E207" s="55"/>
+      <c r="F207" s="26"/>
+    </row>
+    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="23"/>
+      <c r="B208" s="52"/>
+      <c r="C208" s="52"/>
+      <c r="D208" s="24"/>
+      <c r="E208" s="41"/>
+      <c r="F208" s="42"/>
+    </row>
+    <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="23"/>
+      <c r="B209" s="52"/>
+      <c r="C209" s="52"/>
+      <c r="D209" s="24"/>
+      <c r="E209" s="53"/>
+      <c r="F209" s="26"/>
+    </row>
+    <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="23"/>
+      <c r="B210" s="52"/>
+      <c r="C210" s="52"/>
+      <c r="D210" s="24"/>
+      <c r="E210" s="41"/>
+      <c r="F210" s="42"/>
+    </row>
+    <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="23"/>
+      <c r="B211" s="52"/>
+      <c r="C211" s="52"/>
+      <c r="D211" s="24"/>
+      <c r="E211" s="54"/>
+      <c r="F211" s="42"/>
+    </row>
+    <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="23">
+        <v>29</v>
+      </c>
+      <c r="B212" s="50"/>
+      <c r="C212" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D212" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E212" s="11"/>
+      <c r="F212" s="33"/>
+    </row>
+    <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="23"/>
+      <c r="B213" s="52"/>
+      <c r="C213" s="52"/>
+      <c r="D213" s="24"/>
+      <c r="E213" s="35"/>
+      <c r="F213" s="35"/>
+    </row>
+    <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="23"/>
+      <c r="B214" s="52"/>
+      <c r="C214" s="52"/>
+      <c r="D214" s="24"/>
+      <c r="E214" s="45"/>
+      <c r="F214" s="37"/>
+    </row>
+    <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="23"/>
+      <c r="B215" s="52"/>
+      <c r="C215" s="52"/>
+      <c r="D215" s="24"/>
+      <c r="E215" s="46"/>
+      <c r="F215" s="39"/>
+    </row>
+    <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="23"/>
+      <c r="B216" s="52"/>
+      <c r="C216" s="52"/>
+      <c r="D216" s="24"/>
+      <c r="E216" s="47"/>
+      <c r="F216" s="26"/>
+    </row>
+    <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="23"/>
+      <c r="B217" s="52"/>
+      <c r="C217" s="52"/>
+      <c r="D217" s="24"/>
+      <c r="E217" s="55"/>
+      <c r="F217" s="26"/>
+    </row>
+    <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="23"/>
+      <c r="B218" s="52"/>
+      <c r="C218" s="52"/>
+      <c r="D218" s="24"/>
+      <c r="E218" s="41"/>
+      <c r="F218" s="42"/>
+    </row>
+    <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="23"/>
+      <c r="B219" s="52"/>
+      <c r="C219" s="52"/>
+      <c r="D219" s="24"/>
+      <c r="E219" s="53"/>
+      <c r="F219" s="26"/>
+    </row>
+    <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="23"/>
+      <c r="B220" s="52"/>
+      <c r="C220" s="52"/>
+      <c r="D220" s="24"/>
+      <c r="E220" s="41"/>
+      <c r="F220" s="42"/>
+    </row>
+    <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="23"/>
+      <c r="B221" s="52"/>
+      <c r="C221" s="52"/>
+      <c r="D221" s="24"/>
+      <c r="E221" s="54"/>
+      <c r="F221" s="42"/>
+    </row>
+    <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="23">
+        <v>30</v>
+      </c>
+      <c r="B222" s="50"/>
+      <c r="C222" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D222" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E222" s="11"/>
+      <c r="F222" s="33"/>
+    </row>
+    <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="23"/>
+      <c r="B223" s="52"/>
+      <c r="C223" s="52"/>
+      <c r="D223" s="24"/>
+      <c r="E223" s="35"/>
+      <c r="F223" s="35"/>
+    </row>
+    <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="23"/>
+      <c r="B224" s="52"/>
+      <c r="C224" s="52"/>
+      <c r="D224" s="24"/>
+      <c r="E224" s="45"/>
+      <c r="F224" s="37"/>
+    </row>
+    <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="23"/>
+      <c r="B225" s="52"/>
+      <c r="C225" s="52"/>
+      <c r="D225" s="24"/>
+      <c r="E225" s="46"/>
+      <c r="F225" s="39"/>
+    </row>
+    <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="23"/>
+      <c r="B226" s="52"/>
+      <c r="C226" s="52"/>
+      <c r="D226" s="24"/>
+      <c r="E226" s="47"/>
+      <c r="F226" s="26"/>
+    </row>
+    <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="23"/>
+      <c r="B227" s="52"/>
+      <c r="C227" s="52"/>
+      <c r="D227" s="24"/>
+      <c r="E227" s="55"/>
+      <c r="F227" s="26"/>
+    </row>
+    <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="23"/>
+      <c r="B228" s="52"/>
+      <c r="C228" s="52"/>
+      <c r="D228" s="24"/>
+      <c r="E228" s="41"/>
+      <c r="F228" s="42"/>
+    </row>
+    <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="23"/>
+      <c r="B229" s="52"/>
+      <c r="C229" s="52"/>
+      <c r="D229" s="24"/>
+      <c r="E229" s="53"/>
+      <c r="F229" s="26"/>
+    </row>
+    <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="23"/>
+      <c r="B230" s="52"/>
+      <c r="C230" s="52"/>
+      <c r="D230" s="24"/>
+      <c r="E230" s="41"/>
+      <c r="F230" s="42"/>
+    </row>
+    <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="23"/>
+      <c r="B231" s="52"/>
+      <c r="C231" s="52"/>
+      <c r="D231" s="24"/>
+      <c r="E231" s="54"/>
+      <c r="F231" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="120">
+    <mergeCell ref="A212:A221"/>
+    <mergeCell ref="B212:B221"/>
+    <mergeCell ref="C212:C221"/>
+    <mergeCell ref="D212:D221"/>
+    <mergeCell ref="A222:A231"/>
+    <mergeCell ref="B222:B231"/>
+    <mergeCell ref="C222:C231"/>
+    <mergeCell ref="D222:D231"/>
+    <mergeCell ref="A192:A201"/>
+    <mergeCell ref="B192:B201"/>
+    <mergeCell ref="C192:C201"/>
+    <mergeCell ref="D192:D201"/>
+    <mergeCell ref="A202:A211"/>
+    <mergeCell ref="B202:B211"/>
+    <mergeCell ref="C202:C211"/>
+    <mergeCell ref="D202:D211"/>
+    <mergeCell ref="A184:A187"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="D184:D187"/>
+    <mergeCell ref="A188:A191"/>
+    <mergeCell ref="B188:B191"/>
+    <mergeCell ref="C188:C191"/>
+    <mergeCell ref="D188:D191"/>
+    <mergeCell ref="A169:A175"/>
+    <mergeCell ref="B169:B175"/>
+    <mergeCell ref="C169:C175"/>
+    <mergeCell ref="D169:D175"/>
+    <mergeCell ref="A176:A183"/>
+    <mergeCell ref="B176:B183"/>
+    <mergeCell ref="C176:C183"/>
+    <mergeCell ref="D176:D183"/>
+    <mergeCell ref="A158:A163"/>
+    <mergeCell ref="B158:B163"/>
+    <mergeCell ref="C158:C163"/>
+    <mergeCell ref="D158:D163"/>
+    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="B164:B168"/>
+    <mergeCell ref="C164:C168"/>
+    <mergeCell ref="D164:D168"/>
+    <mergeCell ref="A137:A147"/>
+    <mergeCell ref="B137:B147"/>
+    <mergeCell ref="C137:C147"/>
+    <mergeCell ref="D137:D147"/>
+    <mergeCell ref="A148:A157"/>
+    <mergeCell ref="B148:B157"/>
+    <mergeCell ref="C148:C157"/>
+    <mergeCell ref="D148:D157"/>
+    <mergeCell ref="A116:A125"/>
+    <mergeCell ref="B116:B125"/>
+    <mergeCell ref="C116:C125"/>
+    <mergeCell ref="D116:D125"/>
+    <mergeCell ref="A126:A136"/>
+    <mergeCell ref="B126:B136"/>
+    <mergeCell ref="C126:C136"/>
+    <mergeCell ref="D126:D136"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="D100:D105"/>
+    <mergeCell ref="A106:A115"/>
+    <mergeCell ref="B106:B115"/>
+    <mergeCell ref="C106:C115"/>
+    <mergeCell ref="D106:D115"/>
+    <mergeCell ref="A85:A90"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="C85:C90"/>
+    <mergeCell ref="D85:D90"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="B91:B99"/>
+    <mergeCell ref="C91:C99"/>
+    <mergeCell ref="D91:D99"/>
+    <mergeCell ref="A73:A78"/>
+    <mergeCell ref="B73:B78"/>
+    <mergeCell ref="C73:C78"/>
+    <mergeCell ref="D73:D78"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="C79:C84"/>
+    <mergeCell ref="D79:D84"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:C7"/>
@@ -1473,19 +4781,32 @@
     <mergeCell ref="D16:D24"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="C49:C54"/>
+    <mergeCell ref="D49:D54"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="D67:D72"/>
     <mergeCell ref="A31:A45"/>
     <mergeCell ref="B31:B45"/>
     <mergeCell ref="C31:C45"/>
     <mergeCell ref="D31:D45"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="D55:D60"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="B61:B66"/>
+    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="D61:D66"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>